--- a/Recon_PaidInFull_Jan2026.xlsx
+++ b/Recon_PaidInFull_Jan2026.xlsx
@@ -652,63 +652,63 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>MSR100177</t>
+          <t>MSR100034</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>46044</v>
+        <v>46031</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>455000</v>
+        <v>485000</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>354112.98</v>
+        <v>424666.91</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>355630.32</v>
+        <v>426984.98</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>1310.22</v>
+        <v>2229.5</v>
       </c>
       <c r="I4" s="8" t="n">
-        <v>207.12</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>355630.32</v>
+        <v>426984.98</v>
       </c>
       <c r="K4" s="9" t="n">
-        <v>0.0444</v>
+        <v>0.063</v>
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
-          <t>Refinance Payoff</t>
+          <t>Full Payoff</t>
         </is>
       </c>
       <c r="M4" s="10" t="inlineStr">
         <is>
-          <t>Removed from portfolio 01/22/2026</t>
+          <t>Removed from portfolio 01/09/2026</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>MSR100362</t>
+          <t>MSR100100</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -720,29 +720,29 @@
         <v>46049</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>355000</v>
+        <v>390000</v>
       </c>
       <c r="F5" s="14" t="n">
-        <v>280243.73</v>
+        <v>291530.86</v>
       </c>
       <c r="G5" s="14" t="n">
-        <v>281569.18</v>
+        <v>292526.74</v>
       </c>
       <c r="H5" s="14" t="n">
-        <v>985.52</v>
+        <v>760.41</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>339.93</v>
+        <v>235.47</v>
       </c>
       <c r="J5" s="14" t="n">
-        <v>281569.18</v>
+        <v>292526.74</v>
       </c>
       <c r="K5" s="16" t="n">
-        <v>0.0422</v>
+        <v>0.0313</v>
       </c>
       <c r="L5" s="11" t="inlineStr">
         <is>
-          <t>Sale Payoff</t>
+          <t>Refinance Payoff</t>
         </is>
       </c>
       <c r="M5" s="17" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>MSR100426</t>
+          <t>MSR100241</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>46030</v>
+        <v>46038</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>245000</v>
+        <v>300000</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>159074.22</v>
+        <v>265375.94</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>159731.61</v>
+        <v>266391.6</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>570.02</v>
+        <v>683.34</v>
       </c>
       <c r="I6" s="8" t="n">
-        <v>87.37</v>
+        <v>332.32</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>159731.61</v>
+        <v>266391.6</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>0.043</v>
+        <v>0.0309</v>
       </c>
       <c r="L6" s="4" t="inlineStr">
         <is>
@@ -798,49 +798,49 @@
       </c>
       <c r="M6" s="10" t="inlineStr">
         <is>
-          <t>Removed from portfolio 01/08/2026</t>
+          <t>Removed from portfolio 01/16/2026</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>MSR100431</t>
+          <t>MSR100250</t>
         </is>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>FHLMC</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D7" s="12" t="n">
-        <v>46026</v>
+        <v>46032</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>350000</v>
+        <v>305000</v>
       </c>
       <c r="F7" s="14" t="n">
-        <v>343336.38</v>
+        <v>106147.08</v>
       </c>
       <c r="G7" s="14" t="n">
-        <v>345410.4</v>
+        <v>106570.37</v>
       </c>
       <c r="H7" s="14" t="n">
-        <v>1776.77</v>
+        <v>397.17</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>297.25</v>
+        <v>26.12</v>
       </c>
       <c r="J7" s="14" t="n">
-        <v>345410.4</v>
+        <v>106570.37</v>
       </c>
       <c r="K7" s="16" t="n">
-        <v>0.0621</v>
+        <v>0.0449</v>
       </c>
       <c r="L7" s="11" t="inlineStr">
         <is>
@@ -849,14 +849,14 @@
       </c>
       <c r="M7" s="17" t="inlineStr">
         <is>
-          <t>Removed from portfolio 01/04/2026</t>
+          <t>Removed from portfolio 01/10/2026</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>MSR100460</t>
+          <t>MSR100252</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -866,83 +866,83 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>46031</v>
+        <v>46050</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>385000</v>
+        <v>470000</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>206402.62</v>
+        <v>365421</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>207161.71</v>
+        <v>366849.04</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>693.17</v>
+        <v>1367.28</v>
       </c>
       <c r="I8" s="8" t="n">
-        <v>65.92</v>
+        <v>60.76</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>207161.71</v>
+        <v>366849.04</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>0.0403</v>
+        <v>0.0449</v>
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
-          <t>Sale Payoff</t>
+          <t>Refinance Payoff</t>
         </is>
       </c>
       <c r="M8" s="10" t="inlineStr">
         <is>
-          <t>Removed from portfolio 01/09/2026</t>
+          <t>Removed from portfolio 01/28/2026</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>MSR100589</t>
+          <t>MSR100253</t>
         </is>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D9" s="12" t="n">
-        <v>46026</v>
+        <v>46036</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>450000</v>
+        <v>355000</v>
       </c>
       <c r="F9" s="14" t="n">
-        <v>409434.6</v>
+        <v>304042.36</v>
       </c>
       <c r="G9" s="14" t="n">
-        <v>411998.29</v>
+        <v>305430.66</v>
       </c>
       <c r="H9" s="14" t="n">
-        <v>2241.65</v>
+        <v>1195.9</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>322.04</v>
+        <v>192.4</v>
       </c>
       <c r="J9" s="14" t="n">
-        <v>411998.29</v>
+        <v>305430.66</v>
       </c>
       <c r="K9" s="16" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.0472</v>
       </c>
       <c r="L9" s="11" t="inlineStr">
         <is>
@@ -951,49 +951,49 @@
       </c>
       <c r="M9" s="17" t="inlineStr">
         <is>
-          <t>Removed from portfolio 01/04/2026</t>
+          <t>Removed from portfolio 01/14/2026</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>MSR100602</t>
+          <t>MSR100264</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>GNMA</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>USDA</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>46034</v>
+        <v>46043</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>300000</v>
+        <v>545000</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>269275.76</v>
+        <v>502226.21</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>270123.63</v>
+        <v>505073.62</v>
       </c>
       <c r="H10" s="7" t="n">
-        <v>794.36</v>
+        <v>2599.02</v>
       </c>
       <c r="I10" s="8" t="n">
-        <v>53.51</v>
+        <v>248.39</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>270123.63</v>
+        <v>505073.62</v>
       </c>
       <c r="K10" s="9" t="n">
-        <v>0.0354</v>
+        <v>0.0621</v>
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="M10" s="10" t="inlineStr">
         <is>
-          <t>Removed from portfolio 01/12/2026</t>
+          <t>Removed from portfolio 01/21/2026</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>MSR100652</t>
+          <t>MSR100625</t>
         </is>
       </c>
       <c r="B11" s="11" t="inlineStr">
@@ -1019,32 +1019,32 @@
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D11" s="12" t="n">
-        <v>46030</v>
+        <v>46040</v>
       </c>
       <c r="E11" s="13" t="n">
-        <v>425000</v>
+        <v>515000</v>
       </c>
       <c r="F11" s="14" t="n">
-        <v>353496.62</v>
+        <v>450060.9</v>
       </c>
       <c r="G11" s="14" t="n">
-        <v>354557.26</v>
+        <v>451942.7</v>
       </c>
       <c r="H11" s="14" t="n">
-        <v>827.77</v>
+        <v>1796.49</v>
       </c>
       <c r="I11" s="15" t="n">
-        <v>232.87</v>
+        <v>85.31</v>
       </c>
       <c r="J11" s="14" t="n">
-        <v>354557.26</v>
+        <v>451942.7</v>
       </c>
       <c r="K11" s="16" t="n">
-        <v>0.0281</v>
+        <v>0.0479</v>
       </c>
       <c r="L11" s="11" t="inlineStr">
         <is>
@@ -1053,14 +1053,14 @@
       </c>
       <c r="M11" s="17" t="inlineStr">
         <is>
-          <t>Removed from portfolio 01/08/2026</t>
+          <t>Removed from portfolio 01/18/2026</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>MSR100682</t>
+          <t>MSR100709</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
@@ -1070,53 +1070,53 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>46037</v>
+        <v>46031</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>340000</v>
+        <v>390000</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>303256.38</v>
+        <v>311889.86</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>304214.37</v>
+        <v>313016.71</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>740.45</v>
+        <v>836.9</v>
       </c>
       <c r="I12" s="8" t="n">
-        <v>217.54</v>
+        <v>289.95</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>304214.37</v>
+        <v>313016.71</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>0.0293</v>
+        <v>0.0322</v>
       </c>
       <c r="L12" s="4" t="inlineStr">
         <is>
-          <t>Refinance Payoff</t>
+          <t>Full Payoff</t>
         </is>
       </c>
       <c r="M12" s="10" t="inlineStr">
         <is>
-          <t>Removed from portfolio 01/15/2026</t>
+          <t>Removed from portfolio 01/09/2026</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>MSR100772</t>
+          <t>MSR100911</t>
         </is>
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>GNMA</t>
+          <t>FNMA</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
@@ -1125,28 +1125,28 @@
         </is>
       </c>
       <c r="D13" s="12" t="n">
-        <v>46028</v>
+        <v>46037</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>335000</v>
+        <v>250000</v>
       </c>
       <c r="F13" s="14" t="n">
-        <v>284180.51</v>
+        <v>212771.66</v>
       </c>
       <c r="G13" s="14" t="n">
-        <v>285257.93</v>
+        <v>213785.31</v>
       </c>
       <c r="H13" s="14" t="n">
-        <v>781.5</v>
+        <v>790.8</v>
       </c>
       <c r="I13" s="15" t="n">
-        <v>295.92</v>
+        <v>222.85</v>
       </c>
       <c r="J13" s="14" t="n">
-        <v>285257.93</v>
+        <v>213785.31</v>
       </c>
       <c r="K13" s="16" t="n">
-        <v>0.033</v>
+        <v>0.0446</v>
       </c>
       <c r="L13" s="11" t="inlineStr">
         <is>
@@ -1155,109 +1155,109 @@
       </c>
       <c r="M13" s="17" t="inlineStr">
         <is>
-          <t>Removed from portfolio 01/06/2026</t>
+          <t>Removed from portfolio 01/15/2026</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>MSR100783</t>
+          <t>MSR100913</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>Conventional</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>46042</v>
+        <v>46033</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>425000</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>341272.57</v>
+        <v>374742.05</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>342419.56</v>
+        <v>375838.44</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>1046.57</v>
+        <v>949.35</v>
       </c>
       <c r="I14" s="8" t="n">
-        <v>100.42</v>
+        <v>147.04</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>342419.56</v>
+        <v>375838.44</v>
       </c>
       <c r="K14" s="9" t="n">
-        <v>0.0368</v>
+        <v>0.0304</v>
       </c>
       <c r="L14" s="4" t="inlineStr">
         <is>
-          <t>Full Payoff</t>
+          <t>Sale Payoff</t>
         </is>
       </c>
       <c r="M14" s="10" t="inlineStr">
         <is>
-          <t>Removed from portfolio 01/20/2026</t>
+          <t>Removed from portfolio 01/11/2026</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>MSR100963</t>
+          <t>MSR100952</t>
         </is>
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>FNMA</t>
+          <t>FHLMC</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>Conventional</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="D15" s="12" t="n">
-        <v>46048</v>
+        <v>46052</v>
       </c>
       <c r="E15" s="13" t="n">
-        <v>465000</v>
+        <v>335000</v>
       </c>
       <c r="F15" s="14" t="n">
-        <v>442918.84</v>
+        <v>233578.42</v>
       </c>
       <c r="G15" s="14" t="n">
-        <v>445365.94</v>
+        <v>234850.72</v>
       </c>
       <c r="H15" s="14" t="n">
-        <v>2432.36</v>
+        <v>924.58</v>
       </c>
       <c r="I15" s="15" t="n">
-        <v>14.74</v>
+        <v>347.72</v>
       </c>
       <c r="J15" s="14" t="n">
-        <v>445365.94</v>
+        <v>234850.72</v>
       </c>
       <c r="K15" s="16" t="n">
-        <v>0.0659</v>
+        <v>0.0475</v>
       </c>
       <c r="L15" s="11" t="inlineStr">
         <is>
-          <t>Refinance Payoff</t>
+          <t>Full Payoff</t>
         </is>
       </c>
       <c r="M15" s="17" t="inlineStr">
         <is>
-          <t>Removed from portfolio 01/26/2026</t>
+          <t>Removed from portfolio 01/30/2026</t>
         </is>
       </c>
     </row>
